--- a/stock_historical_data/1wk/TECHNOE.NS.xlsx
+++ b/stock_historical_data/1wk/TECHNOE.NS.xlsx
@@ -48061,7 +48061,9 @@
       <c r="P898" t="n">
         <v>0</v>
       </c>
-      <c r="Q898" t="inlineStr"/>
+      <c r="Q898" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TECHNOE.NS.xlsx
+++ b/stock_historical_data/1wk/TECHNOE.NS.xlsx
@@ -50813,7 +50813,9 @@
       <c r="Q899" t="n">
         <v>0</v>
       </c>
-      <c r="R899" t="inlineStr"/>
+      <c r="R899" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TECHNOE.NS.xlsx
+++ b/stock_historical_data/1wk/TECHNOE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R899"/>
+  <dimension ref="A1:R901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50817,6 +50817,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="900">
+      <c r="A900" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B900" t="n">
+        <v>1456.650024414062</v>
+      </c>
+      <c r="C900" t="n">
+        <v>1529.449951171875</v>
+      </c>
+      <c r="D900" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E900" t="n">
+        <v>1441.800048828125</v>
+      </c>
+      <c r="F900" t="n">
+        <v>1441.800048828125</v>
+      </c>
+      <c r="G900" t="n">
+        <v>430088</v>
+      </c>
+      <c r="H900" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I900" t="n">
+        <v>6</v>
+      </c>
+      <c r="J900" t="n">
+        <v>17</v>
+      </c>
+      <c r="K900" t="n">
+        <v>0</v>
+      </c>
+      <c r="L900" t="n">
+        <v>0</v>
+      </c>
+      <c r="M900" t="n">
+        <v>0</v>
+      </c>
+      <c r="N900" t="n">
+        <v>25</v>
+      </c>
+      <c r="O900" t="n">
+        <v>0</v>
+      </c>
+      <c r="P900" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q900" t="n">
+        <v>0</v>
+      </c>
+      <c r="R900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B901" t="n">
+        <v>1440</v>
+      </c>
+      <c r="C901" t="n">
+        <v>1590</v>
+      </c>
+      <c r="D901" t="n">
+        <v>1434.5</v>
+      </c>
+      <c r="E901" t="n">
+        <v>1553.300048828125</v>
+      </c>
+      <c r="F901" t="n">
+        <v>1553.300048828125</v>
+      </c>
+      <c r="G901" t="n">
+        <v>750101</v>
+      </c>
+      <c r="H901" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I901" t="n">
+        <v>6</v>
+      </c>
+      <c r="J901" t="n">
+        <v>24</v>
+      </c>
+      <c r="K901" t="n">
+        <v>0</v>
+      </c>
+      <c r="L901" t="n">
+        <v>0</v>
+      </c>
+      <c r="M901" t="n">
+        <v>0</v>
+      </c>
+      <c r="N901" t="n">
+        <v>26</v>
+      </c>
+      <c r="O901" t="n">
+        <v>0</v>
+      </c>
+      <c r="P901" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q901" t="n">
+        <v>0</v>
+      </c>
+      <c r="R901" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/TECHNOE.NS.xlsx
+++ b/stock_historical_data/1wk/TECHNOE.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R901"/>
+  <dimension ref="A1:R936"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -50869,7 +50869,9 @@
       <c r="Q900" t="n">
         <v>0</v>
       </c>
-      <c r="R900" t="inlineStr"/>
+      <c r="R900" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
@@ -50923,7 +50925,1829 @@
       <c r="Q901" t="n">
         <v>0</v>
       </c>
-      <c r="R901" t="inlineStr"/>
+      <c r="R901" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B902" t="n">
+        <v>1592.016827162927</v>
+      </c>
+      <c r="C902" t="n">
+        <v>1592.016827162927</v>
+      </c>
+      <c r="D902" t="n">
+        <v>1409.467579887927</v>
+      </c>
+      <c r="E902" t="n">
+        <v>1469.00634765625</v>
+      </c>
+      <c r="F902" t="inlineStr"/>
+      <c r="G902" t="n">
+        <v>526386</v>
+      </c>
+      <c r="H902" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I902" t="n">
+        <v>7</v>
+      </c>
+      <c r="J902" t="n">
+        <v>1</v>
+      </c>
+      <c r="K902" t="n">
+        <v>0</v>
+      </c>
+      <c r="L902" t="n">
+        <v>0</v>
+      </c>
+      <c r="M902" t="n">
+        <v>0</v>
+      </c>
+      <c r="N902" t="n">
+        <v>27</v>
+      </c>
+      <c r="O902" t="n">
+        <v>0</v>
+      </c>
+      <c r="P902" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q902" t="n">
+        <v>0</v>
+      </c>
+      <c r="R902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B903" t="n">
+        <v>1488.421135548967</v>
+      </c>
+      <c r="C903" t="n">
+        <v>1592.11631108599</v>
+      </c>
+      <c r="D903" t="n">
+        <v>1385.07452870527</v>
+      </c>
+      <c r="E903" t="n">
+        <v>1440.5810546875</v>
+      </c>
+      <c r="F903" t="inlineStr"/>
+      <c r="G903" t="n">
+        <v>707732</v>
+      </c>
+      <c r="H903" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I903" t="n">
+        <v>7</v>
+      </c>
+      <c r="J903" t="n">
+        <v>8</v>
+      </c>
+      <c r="K903" t="n">
+        <v>0</v>
+      </c>
+      <c r="L903" t="n">
+        <v>0</v>
+      </c>
+      <c r="M903" t="n">
+        <v>0</v>
+      </c>
+      <c r="N903" t="n">
+        <v>28</v>
+      </c>
+      <c r="O903" t="n">
+        <v>0</v>
+      </c>
+      <c r="P903" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q903" t="n">
+        <v>0</v>
+      </c>
+      <c r="R903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B904" t="n">
+        <v>1431.719932198669</v>
+      </c>
+      <c r="C904" t="n">
+        <v>1552.988052956665</v>
+      </c>
+      <c r="D904" t="n">
+        <v>1368.995067297058</v>
+      </c>
+      <c r="E904" t="n">
+        <v>1471.395874023438</v>
+      </c>
+      <c r="F904" t="inlineStr"/>
+      <c r="G904" t="n">
+        <v>772328</v>
+      </c>
+      <c r="H904" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I904" t="n">
+        <v>7</v>
+      </c>
+      <c r="J904" t="n">
+        <v>15</v>
+      </c>
+      <c r="K904" t="n">
+        <v>0</v>
+      </c>
+      <c r="L904" t="n">
+        <v>0</v>
+      </c>
+      <c r="M904" t="n">
+        <v>0</v>
+      </c>
+      <c r="N904" t="n">
+        <v>29</v>
+      </c>
+      <c r="O904" t="n">
+        <v>0</v>
+      </c>
+      <c r="P904" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q904" t="n">
+        <v>0</v>
+      </c>
+      <c r="R904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B905" t="n">
+        <v>1471.545262517874</v>
+      </c>
+      <c r="C905" t="n">
+        <v>1714.479663095927</v>
+      </c>
+      <c r="D905" t="n">
+        <v>1413.798560741124</v>
+      </c>
+      <c r="E905" t="n">
+        <v>1680.677978515625</v>
+      </c>
+      <c r="F905" t="inlineStr"/>
+      <c r="G905" t="n">
+        <v>823290</v>
+      </c>
+      <c r="H905" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I905" t="n">
+        <v>7</v>
+      </c>
+      <c r="J905" t="n">
+        <v>22</v>
+      </c>
+      <c r="K905" t="n">
+        <v>0</v>
+      </c>
+      <c r="L905" t="n">
+        <v>0</v>
+      </c>
+      <c r="M905" t="n">
+        <v>0</v>
+      </c>
+      <c r="N905" t="n">
+        <v>30</v>
+      </c>
+      <c r="O905" t="n">
+        <v>0</v>
+      </c>
+      <c r="P905" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q905" t="n">
+        <v>0</v>
+      </c>
+      <c r="R905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B906" t="n">
+        <v>1680.677904205293</v>
+      </c>
+      <c r="C906" t="n">
+        <v>1769.23938827888</v>
+      </c>
+      <c r="D906" t="n">
+        <v>1612.925047277314</v>
+      </c>
+      <c r="E906" t="n">
+        <v>1702.97998046875</v>
+      </c>
+      <c r="F906" t="inlineStr"/>
+      <c r="G906" t="n">
+        <v>1261065</v>
+      </c>
+      <c r="H906" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I906" t="n">
+        <v>7</v>
+      </c>
+      <c r="J906" t="n">
+        <v>29</v>
+      </c>
+      <c r="K906" t="n">
+        <v>0</v>
+      </c>
+      <c r="L906" t="n">
+        <v>0</v>
+      </c>
+      <c r="M906" t="n">
+        <v>0</v>
+      </c>
+      <c r="N906" t="n">
+        <v>31</v>
+      </c>
+      <c r="O906" t="n">
+        <v>0</v>
+      </c>
+      <c r="P906" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q906" t="n">
+        <v>0</v>
+      </c>
+      <c r="R906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B907" t="n">
+        <v>1618.898902855792</v>
+      </c>
+      <c r="C907" t="n">
+        <v>1679.632502532424</v>
+      </c>
+      <c r="D907" t="n">
+        <v>1543.230811455398</v>
+      </c>
+      <c r="E907" t="n">
+        <v>1641.1015625</v>
+      </c>
+      <c r="F907" t="inlineStr"/>
+      <c r="G907" t="n">
+        <v>447052</v>
+      </c>
+      <c r="H907" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I907" t="n">
+        <v>8</v>
+      </c>
+      <c r="J907" t="n">
+        <v>5</v>
+      </c>
+      <c r="K907" t="n">
+        <v>0</v>
+      </c>
+      <c r="L907" t="n">
+        <v>0</v>
+      </c>
+      <c r="M907" t="n">
+        <v>0</v>
+      </c>
+      <c r="N907" t="n">
+        <v>32</v>
+      </c>
+      <c r="O907" t="n">
+        <v>0</v>
+      </c>
+      <c r="P907" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q907" t="n">
+        <v>0</v>
+      </c>
+      <c r="R907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B908" t="n">
+        <v>1681.324958714156</v>
+      </c>
+      <c r="C908" t="n">
+        <v>1737.379130567399</v>
+      </c>
+      <c r="D908" t="n">
+        <v>1544.226379088846</v>
+      </c>
+      <c r="E908" t="n">
+        <v>1640.056030273438</v>
+      </c>
+      <c r="F908" t="inlineStr"/>
+      <c r="G908" t="n">
+        <v>442417</v>
+      </c>
+      <c r="H908" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I908" t="n">
+        <v>8</v>
+      </c>
+      <c r="J908" t="n">
+        <v>12</v>
+      </c>
+      <c r="K908" t="n">
+        <v>0</v>
+      </c>
+      <c r="L908" t="n">
+        <v>0</v>
+      </c>
+      <c r="M908" t="n">
+        <v>0</v>
+      </c>
+      <c r="N908" t="n">
+        <v>33</v>
+      </c>
+      <c r="O908" t="n">
+        <v>0</v>
+      </c>
+      <c r="P908" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q908" t="n">
+        <v>0</v>
+      </c>
+      <c r="R908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B909" t="n">
+        <v>1682.619316608198</v>
+      </c>
+      <c r="C909" t="n">
+        <v>1788.853280467931</v>
+      </c>
+      <c r="D909" t="n">
+        <v>1642.893546305097</v>
+      </c>
+      <c r="E909" t="n">
+        <v>1685.1083984375</v>
+      </c>
+      <c r="F909" t="inlineStr"/>
+      <c r="G909" t="n">
+        <v>412143</v>
+      </c>
+      <c r="H909" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I909" t="n">
+        <v>8</v>
+      </c>
+      <c r="J909" t="n">
+        <v>19</v>
+      </c>
+      <c r="K909" t="n">
+        <v>0</v>
+      </c>
+      <c r="L909" t="n">
+        <v>0</v>
+      </c>
+      <c r="M909" t="n">
+        <v>0</v>
+      </c>
+      <c r="N909" t="n">
+        <v>34</v>
+      </c>
+      <c r="O909" t="n">
+        <v>1</v>
+      </c>
+      <c r="P909" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q909" t="n">
+        <v>0</v>
+      </c>
+      <c r="R909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B910" t="n">
+        <v>1692.575743686459</v>
+      </c>
+      <c r="C910" t="n">
+        <v>1738.374852045033</v>
+      </c>
+      <c r="D910" t="n">
+        <v>1568.121644885984</v>
+      </c>
+      <c r="E910" t="n">
+        <v>1628.108520507812</v>
+      </c>
+      <c r="F910" t="inlineStr"/>
+      <c r="G910" t="n">
+        <v>487205</v>
+      </c>
+      <c r="H910" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I910" t="n">
+        <v>8</v>
+      </c>
+      <c r="J910" t="n">
+        <v>26</v>
+      </c>
+      <c r="K910" t="n">
+        <v>0</v>
+      </c>
+      <c r="L910" t="n">
+        <v>0</v>
+      </c>
+      <c r="M910" t="n">
+        <v>0</v>
+      </c>
+      <c r="N910" t="n">
+        <v>35</v>
+      </c>
+      <c r="O910" t="n">
+        <v>0</v>
+      </c>
+      <c r="P910" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q910" t="n">
+        <v>0</v>
+      </c>
+      <c r="R910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B911" t="n">
+        <v>1628.805384268164</v>
+      </c>
+      <c r="C911" t="n">
+        <v>1692.57571191123</v>
+      </c>
+      <c r="D911" t="n">
+        <v>1528.893659934256</v>
+      </c>
+      <c r="E911" t="n">
+        <v>1547.312866210938</v>
+      </c>
+      <c r="F911" t="inlineStr"/>
+      <c r="G911" t="n">
+        <v>956205</v>
+      </c>
+      <c r="H911" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I911" t="n">
+        <v>9</v>
+      </c>
+      <c r="J911" t="n">
+        <v>2</v>
+      </c>
+      <c r="K911" t="n">
+        <v>0</v>
+      </c>
+      <c r="L911" t="n">
+        <v>0</v>
+      </c>
+      <c r="M911" t="n">
+        <v>0</v>
+      </c>
+      <c r="N911" t="n">
+        <v>36</v>
+      </c>
+      <c r="O911" t="n">
+        <v>0</v>
+      </c>
+      <c r="P911" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q911" t="n">
+        <v>0</v>
+      </c>
+      <c r="R911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B912" t="n">
+        <v>1592.016842713827</v>
+      </c>
+      <c r="C912" t="n">
+        <v>1667.087579929725</v>
+      </c>
+      <c r="D912" t="n">
+        <v>1549.25446268921</v>
+      </c>
+      <c r="E912" t="n">
+        <v>1593.908569335938</v>
+      </c>
+      <c r="F912" t="inlineStr"/>
+      <c r="G912" t="n">
+        <v>837242</v>
+      </c>
+      <c r="H912" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I912" t="n">
+        <v>9</v>
+      </c>
+      <c r="J912" t="n">
+        <v>9</v>
+      </c>
+      <c r="K912" t="n">
+        <v>0</v>
+      </c>
+      <c r="L912" t="n">
+        <v>0</v>
+      </c>
+      <c r="M912" t="n">
+        <v>0</v>
+      </c>
+      <c r="N912" t="n">
+        <v>37</v>
+      </c>
+      <c r="O912" t="n">
+        <v>0</v>
+      </c>
+      <c r="P912" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q912" t="n">
+        <v>0</v>
+      </c>
+      <c r="R912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B913" t="n">
+        <v>1602.599975585938</v>
+      </c>
+      <c r="C913" t="n">
+        <v>1612</v>
+      </c>
+      <c r="D913" t="n">
+        <v>1453.199951171875</v>
+      </c>
+      <c r="E913" t="n">
+        <v>1518.5</v>
+      </c>
+      <c r="F913" t="inlineStr"/>
+      <c r="G913" t="n">
+        <v>1489307</v>
+      </c>
+      <c r="H913" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I913" t="n">
+        <v>9</v>
+      </c>
+      <c r="J913" t="n">
+        <v>16</v>
+      </c>
+      <c r="K913" t="n">
+        <v>0</v>
+      </c>
+      <c r="L913" t="n">
+        <v>0</v>
+      </c>
+      <c r="M913" t="n">
+        <v>0</v>
+      </c>
+      <c r="N913" t="n">
+        <v>38</v>
+      </c>
+      <c r="O913" t="n">
+        <v>0</v>
+      </c>
+      <c r="P913" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q913" t="n">
+        <v>0</v>
+      </c>
+      <c r="R913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B914" t="n">
+        <v>1520.949951171875</v>
+      </c>
+      <c r="C914" t="n">
+        <v>1639.300048828125</v>
+      </c>
+      <c r="D914" t="n">
+        <v>1519.949951171875</v>
+      </c>
+      <c r="E914" t="n">
+        <v>1630.650024414062</v>
+      </c>
+      <c r="F914" t="inlineStr"/>
+      <c r="G914" t="n">
+        <v>1113957</v>
+      </c>
+      <c r="H914" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I914" t="n">
+        <v>9</v>
+      </c>
+      <c r="J914" t="n">
+        <v>23</v>
+      </c>
+      <c r="K914" t="n">
+        <v>0</v>
+      </c>
+      <c r="L914" t="n">
+        <v>0</v>
+      </c>
+      <c r="M914" t="n">
+        <v>0</v>
+      </c>
+      <c r="N914" t="n">
+        <v>39</v>
+      </c>
+      <c r="O914" t="n">
+        <v>0</v>
+      </c>
+      <c r="P914" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q914" t="n">
+        <v>0</v>
+      </c>
+      <c r="R914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B915" t="n">
+        <v>1639.900024414062</v>
+      </c>
+      <c r="C915" t="n">
+        <v>1639.900024414062</v>
+      </c>
+      <c r="D915" t="n">
+        <v>1511</v>
+      </c>
+      <c r="E915" t="n">
+        <v>1530.349975585938</v>
+      </c>
+      <c r="F915" t="inlineStr"/>
+      <c r="G915" t="n">
+        <v>278441</v>
+      </c>
+      <c r="H915" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I915" t="n">
+        <v>9</v>
+      </c>
+      <c r="J915" t="n">
+        <v>30</v>
+      </c>
+      <c r="K915" t="n">
+        <v>0</v>
+      </c>
+      <c r="L915" t="n">
+        <v>0</v>
+      </c>
+      <c r="M915" t="n">
+        <v>0</v>
+      </c>
+      <c r="N915" t="n">
+        <v>40</v>
+      </c>
+      <c r="O915" t="n">
+        <v>0</v>
+      </c>
+      <c r="P915" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q915" t="n">
+        <v>2</v>
+      </c>
+      <c r="R915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B916" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C916" t="n">
+        <v>1796</v>
+      </c>
+      <c r="D916" t="n">
+        <v>1520</v>
+      </c>
+      <c r="E916" t="n">
+        <v>1719.550048828125</v>
+      </c>
+      <c r="F916" t="inlineStr"/>
+      <c r="G916" t="n">
+        <v>1261858</v>
+      </c>
+      <c r="H916" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I916" t="n">
+        <v>10</v>
+      </c>
+      <c r="J916" t="n">
+        <v>7</v>
+      </c>
+      <c r="K916" t="n">
+        <v>0</v>
+      </c>
+      <c r="L916" t="n">
+        <v>0</v>
+      </c>
+      <c r="M916" t="n">
+        <v>0</v>
+      </c>
+      <c r="N916" t="n">
+        <v>41</v>
+      </c>
+      <c r="O916" t="n">
+        <v>0</v>
+      </c>
+      <c r="P916" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q916" t="n">
+        <v>0</v>
+      </c>
+      <c r="R916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B917" t="n">
+        <v>1731.449951171875</v>
+      </c>
+      <c r="C917" t="n">
+        <v>1822</v>
+      </c>
+      <c r="D917" t="n">
+        <v>1681.050048828125</v>
+      </c>
+      <c r="E917" t="n">
+        <v>1731.400024414062</v>
+      </c>
+      <c r="F917" t="inlineStr"/>
+      <c r="G917" t="n">
+        <v>940856</v>
+      </c>
+      <c r="H917" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I917" t="n">
+        <v>10</v>
+      </c>
+      <c r="J917" t="n">
+        <v>14</v>
+      </c>
+      <c r="K917" t="n">
+        <v>0</v>
+      </c>
+      <c r="L917" t="n">
+        <v>0</v>
+      </c>
+      <c r="M917" t="n">
+        <v>0</v>
+      </c>
+      <c r="N917" t="n">
+        <v>42</v>
+      </c>
+      <c r="O917" t="n">
+        <v>1</v>
+      </c>
+      <c r="P917" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q917" t="n">
+        <v>0</v>
+      </c>
+      <c r="R917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B918" t="n">
+        <v>1758.800048828125</v>
+      </c>
+      <c r="C918" t="n">
+        <v>1779</v>
+      </c>
+      <c r="D918" t="n">
+        <v>1450.150024414062</v>
+      </c>
+      <c r="E918" t="n">
+        <v>1470.599975585938</v>
+      </c>
+      <c r="F918" t="inlineStr"/>
+      <c r="G918" t="n">
+        <v>831967</v>
+      </c>
+      <c r="H918" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I918" t="n">
+        <v>10</v>
+      </c>
+      <c r="J918" t="n">
+        <v>21</v>
+      </c>
+      <c r="K918" t="n">
+        <v>0</v>
+      </c>
+      <c r="L918" t="n">
+        <v>0</v>
+      </c>
+      <c r="M918" t="n">
+        <v>0</v>
+      </c>
+      <c r="N918" t="n">
+        <v>43</v>
+      </c>
+      <c r="O918" t="n">
+        <v>0</v>
+      </c>
+      <c r="P918" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q918" t="n">
+        <v>0</v>
+      </c>
+      <c r="R918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B919" t="n">
+        <v>1466</v>
+      </c>
+      <c r="C919" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D919" t="n">
+        <v>1424.849975585938</v>
+      </c>
+      <c r="E919" t="n">
+        <v>1594.150024414062</v>
+      </c>
+      <c r="F919" t="inlineStr"/>
+      <c r="G919" t="n">
+        <v>478005</v>
+      </c>
+      <c r="H919" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I919" t="n">
+        <v>10</v>
+      </c>
+      <c r="J919" t="n">
+        <v>28</v>
+      </c>
+      <c r="K919" t="n">
+        <v>0</v>
+      </c>
+      <c r="L919" t="n">
+        <v>0</v>
+      </c>
+      <c r="M919" t="n">
+        <v>0</v>
+      </c>
+      <c r="N919" t="n">
+        <v>44</v>
+      </c>
+      <c r="O919" t="n">
+        <v>0</v>
+      </c>
+      <c r="P919" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q919" t="n">
+        <v>0</v>
+      </c>
+      <c r="R919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B920" t="n">
+        <v>1594</v>
+      </c>
+      <c r="C920" t="n">
+        <v>1693.949951171875</v>
+      </c>
+      <c r="D920" t="n">
+        <v>1525.050048828125</v>
+      </c>
+      <c r="E920" t="n">
+        <v>1617.050048828125</v>
+      </c>
+      <c r="F920" t="inlineStr"/>
+      <c r="G920" t="n">
+        <v>473468</v>
+      </c>
+      <c r="H920" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I920" t="n">
+        <v>11</v>
+      </c>
+      <c r="J920" t="n">
+        <v>4</v>
+      </c>
+      <c r="K920" t="n">
+        <v>0</v>
+      </c>
+      <c r="L920" t="n">
+        <v>0</v>
+      </c>
+      <c r="M920" t="n">
+        <v>0</v>
+      </c>
+      <c r="N920" t="n">
+        <v>45</v>
+      </c>
+      <c r="O920" t="n">
+        <v>0</v>
+      </c>
+      <c r="P920" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q920" t="n">
+        <v>0</v>
+      </c>
+      <c r="R920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B921" t="n">
+        <v>1625</v>
+      </c>
+      <c r="C921" t="n">
+        <v>1632.449951171875</v>
+      </c>
+      <c r="D921" t="n">
+        <v>1395.400024414062</v>
+      </c>
+      <c r="E921" t="n">
+        <v>1444.900024414062</v>
+      </c>
+      <c r="F921" t="inlineStr"/>
+      <c r="G921" t="n">
+        <v>913050</v>
+      </c>
+      <c r="H921" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I921" t="n">
+        <v>11</v>
+      </c>
+      <c r="J921" t="n">
+        <v>11</v>
+      </c>
+      <c r="K921" t="n">
+        <v>0</v>
+      </c>
+      <c r="L921" t="n">
+        <v>0</v>
+      </c>
+      <c r="M921" t="n">
+        <v>0</v>
+      </c>
+      <c r="N921" t="n">
+        <v>46</v>
+      </c>
+      <c r="O921" t="n">
+        <v>2</v>
+      </c>
+      <c r="P921" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q921" t="n">
+        <v>0</v>
+      </c>
+      <c r="R921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B922" t="n">
+        <v>1439</v>
+      </c>
+      <c r="C922" t="n">
+        <v>1534.949951171875</v>
+      </c>
+      <c r="D922" t="n">
+        <v>1405.599975585938</v>
+      </c>
+      <c r="E922" t="n">
+        <v>1486.849975585938</v>
+      </c>
+      <c r="F922" t="inlineStr"/>
+      <c r="G922" t="n">
+        <v>474781</v>
+      </c>
+      <c r="H922" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I922" t="n">
+        <v>11</v>
+      </c>
+      <c r="J922" t="n">
+        <v>18</v>
+      </c>
+      <c r="K922" t="n">
+        <v>0</v>
+      </c>
+      <c r="L922" t="n">
+        <v>0</v>
+      </c>
+      <c r="M922" t="n">
+        <v>0</v>
+      </c>
+      <c r="N922" t="n">
+        <v>47</v>
+      </c>
+      <c r="O922" t="n">
+        <v>0</v>
+      </c>
+      <c r="P922" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q922" t="n">
+        <v>0</v>
+      </c>
+      <c r="R922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B923" t="n">
+        <v>1528</v>
+      </c>
+      <c r="C923" t="n">
+        <v>1549.949951171875</v>
+      </c>
+      <c r="D923" t="n">
+        <v>1422.650024414062</v>
+      </c>
+      <c r="E923" t="n">
+        <v>1473.900024414062</v>
+      </c>
+      <c r="F923" t="inlineStr"/>
+      <c r="G923" t="n">
+        <v>817097</v>
+      </c>
+      <c r="H923" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I923" t="n">
+        <v>11</v>
+      </c>
+      <c r="J923" t="n">
+        <v>25</v>
+      </c>
+      <c r="K923" t="n">
+        <v>0</v>
+      </c>
+      <c r="L923" t="n">
+        <v>0</v>
+      </c>
+      <c r="M923" t="n">
+        <v>0</v>
+      </c>
+      <c r="N923" t="n">
+        <v>48</v>
+      </c>
+      <c r="O923" t="n">
+        <v>0</v>
+      </c>
+      <c r="P923" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q923" t="n">
+        <v>2</v>
+      </c>
+      <c r="R923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B924" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C924" t="n">
+        <v>1559.449951171875</v>
+      </c>
+      <c r="D924" t="n">
+        <v>1416.199951171875</v>
+      </c>
+      <c r="E924" t="n">
+        <v>1504.25</v>
+      </c>
+      <c r="F924" t="inlineStr"/>
+      <c r="G924" t="n">
+        <v>722225</v>
+      </c>
+      <c r="H924" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I924" t="n">
+        <v>12</v>
+      </c>
+      <c r="J924" t="n">
+        <v>2</v>
+      </c>
+      <c r="K924" t="n">
+        <v>0</v>
+      </c>
+      <c r="L924" t="n">
+        <v>0</v>
+      </c>
+      <c r="M924" t="n">
+        <v>0</v>
+      </c>
+      <c r="N924" t="n">
+        <v>49</v>
+      </c>
+      <c r="O924" t="n">
+        <v>0</v>
+      </c>
+      <c r="P924" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q924" t="n">
+        <v>0</v>
+      </c>
+      <c r="R924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B925" t="n">
+        <v>1481</v>
+      </c>
+      <c r="C925" t="n">
+        <v>1504</v>
+      </c>
+      <c r="D925" t="n">
+        <v>1400.099975585938</v>
+      </c>
+      <c r="E925" t="n">
+        <v>1443.800048828125</v>
+      </c>
+      <c r="F925" t="inlineStr"/>
+      <c r="G925" t="n">
+        <v>1881493</v>
+      </c>
+      <c r="H925" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I925" t="n">
+        <v>12</v>
+      </c>
+      <c r="J925" t="n">
+        <v>9</v>
+      </c>
+      <c r="K925" t="n">
+        <v>0</v>
+      </c>
+      <c r="L925" t="n">
+        <v>0</v>
+      </c>
+      <c r="M925" t="n">
+        <v>0</v>
+      </c>
+      <c r="N925" t="n">
+        <v>50</v>
+      </c>
+      <c r="O925" t="n">
+        <v>0</v>
+      </c>
+      <c r="P925" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q925" t="n">
+        <v>0</v>
+      </c>
+      <c r="R925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B926" t="n">
+        <v>1454</v>
+      </c>
+      <c r="C926" t="n">
+        <v>1652.599975585938</v>
+      </c>
+      <c r="D926" t="n">
+        <v>1436</v>
+      </c>
+      <c r="E926" t="n">
+        <v>1625.150024414062</v>
+      </c>
+      <c r="F926" t="inlineStr"/>
+      <c r="G926" t="n">
+        <v>1939872</v>
+      </c>
+      <c r="H926" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I926" t="n">
+        <v>12</v>
+      </c>
+      <c r="J926" t="n">
+        <v>16</v>
+      </c>
+      <c r="K926" t="n">
+        <v>0</v>
+      </c>
+      <c r="L926" t="n">
+        <v>0</v>
+      </c>
+      <c r="M926" t="n">
+        <v>0</v>
+      </c>
+      <c r="N926" t="n">
+        <v>51</v>
+      </c>
+      <c r="O926" t="n">
+        <v>0</v>
+      </c>
+      <c r="P926" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q926" t="n">
+        <v>0</v>
+      </c>
+      <c r="R926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B927" t="n">
+        <v>1675</v>
+      </c>
+      <c r="C927" t="n">
+        <v>1710</v>
+      </c>
+      <c r="D927" t="n">
+        <v>1545</v>
+      </c>
+      <c r="E927" t="n">
+        <v>1559.75</v>
+      </c>
+      <c r="F927" t="inlineStr"/>
+      <c r="G927" t="n">
+        <v>1191975</v>
+      </c>
+      <c r="H927" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I927" t="n">
+        <v>12</v>
+      </c>
+      <c r="J927" t="n">
+        <v>23</v>
+      </c>
+      <c r="K927" t="n">
+        <v>0</v>
+      </c>
+      <c r="L927" t="n">
+        <v>0</v>
+      </c>
+      <c r="M927" t="n">
+        <v>0</v>
+      </c>
+      <c r="N927" t="n">
+        <v>52</v>
+      </c>
+      <c r="O927" t="n">
+        <v>0</v>
+      </c>
+      <c r="P927" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q927" t="n">
+        <v>1</v>
+      </c>
+      <c r="R927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B928" t="n">
+        <v>1568.300048828125</v>
+      </c>
+      <c r="C928" t="n">
+        <v>1720</v>
+      </c>
+      <c r="D928" t="n">
+        <v>1547.150024414062</v>
+      </c>
+      <c r="E928" t="n">
+        <v>1640.699951171875</v>
+      </c>
+      <c r="F928" t="inlineStr"/>
+      <c r="G928" t="n">
+        <v>1148409</v>
+      </c>
+      <c r="H928" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I928" t="n">
+        <v>12</v>
+      </c>
+      <c r="J928" t="n">
+        <v>30</v>
+      </c>
+      <c r="K928" t="n">
+        <v>0</v>
+      </c>
+      <c r="L928" t="n">
+        <v>0</v>
+      </c>
+      <c r="M928" t="n">
+        <v>0</v>
+      </c>
+      <c r="N928" t="n">
+        <v>1</v>
+      </c>
+      <c r="O928" t="n">
+        <v>1</v>
+      </c>
+      <c r="P928" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q928" t="n">
+        <v>0</v>
+      </c>
+      <c r="R928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B929" t="n">
+        <v>1657.300048828125</v>
+      </c>
+      <c r="C929" t="n">
+        <v>1657.300048828125</v>
+      </c>
+      <c r="D929" t="n">
+        <v>1391.800048828125</v>
+      </c>
+      <c r="E929" t="n">
+        <v>1399.050048828125</v>
+      </c>
+      <c r="F929" t="inlineStr"/>
+      <c r="G929" t="n">
+        <v>901987</v>
+      </c>
+      <c r="H929" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I929" t="n">
+        <v>1</v>
+      </c>
+      <c r="J929" t="n">
+        <v>6</v>
+      </c>
+      <c r="K929" t="n">
+        <v>0</v>
+      </c>
+      <c r="L929" t="n">
+        <v>0</v>
+      </c>
+      <c r="M929" t="n">
+        <v>0</v>
+      </c>
+      <c r="N929" t="n">
+        <v>2</v>
+      </c>
+      <c r="O929" t="n">
+        <v>0</v>
+      </c>
+      <c r="P929" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q929" t="n">
+        <v>0</v>
+      </c>
+      <c r="R929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B930" t="n">
+        <v>1320</v>
+      </c>
+      <c r="C930" t="n">
+        <v>1419.849975585938</v>
+      </c>
+      <c r="D930" t="n">
+        <v>1250.699951171875</v>
+      </c>
+      <c r="E930" t="n">
+        <v>1288.550048828125</v>
+      </c>
+      <c r="F930" t="inlineStr"/>
+      <c r="G930" t="n">
+        <v>1237955</v>
+      </c>
+      <c r="H930" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I930" t="n">
+        <v>1</v>
+      </c>
+      <c r="J930" t="n">
+        <v>13</v>
+      </c>
+      <c r="K930" t="n">
+        <v>0</v>
+      </c>
+      <c r="L930" t="n">
+        <v>0</v>
+      </c>
+      <c r="M930" t="n">
+        <v>0</v>
+      </c>
+      <c r="N930" t="n">
+        <v>3</v>
+      </c>
+      <c r="O930" t="n">
+        <v>0</v>
+      </c>
+      <c r="P930" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q930" t="n">
+        <v>0</v>
+      </c>
+      <c r="R930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B931" t="n">
+        <v>1272.75</v>
+      </c>
+      <c r="C931" t="n">
+        <v>1338</v>
+      </c>
+      <c r="D931" t="n">
+        <v>1097.099975585938</v>
+      </c>
+      <c r="E931" t="n">
+        <v>1110.050048828125</v>
+      </c>
+      <c r="F931" t="inlineStr"/>
+      <c r="G931" t="n">
+        <v>1350575</v>
+      </c>
+      <c r="H931" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I931" t="n">
+        <v>1</v>
+      </c>
+      <c r="J931" t="n">
+        <v>20</v>
+      </c>
+      <c r="K931" t="n">
+        <v>0</v>
+      </c>
+      <c r="L931" t="n">
+        <v>0</v>
+      </c>
+      <c r="M931" t="n">
+        <v>0</v>
+      </c>
+      <c r="N931" t="n">
+        <v>4</v>
+      </c>
+      <c r="O931" t="n">
+        <v>0</v>
+      </c>
+      <c r="P931" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q931" t="n">
+        <v>0</v>
+      </c>
+      <c r="R931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B932" t="n">
+        <v>1098</v>
+      </c>
+      <c r="C932" t="n">
+        <v>1118.949951171875</v>
+      </c>
+      <c r="D932" t="n">
+        <v>957.5999755859375</v>
+      </c>
+      <c r="E932" t="n">
+        <v>1077.75</v>
+      </c>
+      <c r="F932" t="inlineStr"/>
+      <c r="G932" t="n">
+        <v>2386178</v>
+      </c>
+      <c r="H932" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I932" t="n">
+        <v>1</v>
+      </c>
+      <c r="J932" t="n">
+        <v>27</v>
+      </c>
+      <c r="K932" t="n">
+        <v>0</v>
+      </c>
+      <c r="L932" t="n">
+        <v>0</v>
+      </c>
+      <c r="M932" t="n">
+        <v>0</v>
+      </c>
+      <c r="N932" t="n">
+        <v>5</v>
+      </c>
+      <c r="O932" t="n">
+        <v>0</v>
+      </c>
+      <c r="P932" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q932" t="n">
+        <v>0</v>
+      </c>
+      <c r="R932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B933" t="n">
+        <v>1023.299987792969</v>
+      </c>
+      <c r="C933" t="n">
+        <v>1138</v>
+      </c>
+      <c r="D933" t="n">
+        <v>985.0499877929688</v>
+      </c>
+      <c r="E933" t="n">
+        <v>1087.849975585938</v>
+      </c>
+      <c r="F933" t="inlineStr"/>
+      <c r="G933" t="n">
+        <v>3628479</v>
+      </c>
+      <c r="H933" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I933" t="n">
+        <v>2</v>
+      </c>
+      <c r="J933" t="n">
+        <v>3</v>
+      </c>
+      <c r="K933" t="n">
+        <v>0</v>
+      </c>
+      <c r="L933" t="n">
+        <v>0</v>
+      </c>
+      <c r="M933" t="n">
+        <v>0</v>
+      </c>
+      <c r="N933" t="n">
+        <v>6</v>
+      </c>
+      <c r="O933" t="n">
+        <v>0</v>
+      </c>
+      <c r="P933" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q933" t="n">
+        <v>0</v>
+      </c>
+      <c r="R933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B934" t="n">
+        <v>1097</v>
+      </c>
+      <c r="C934" t="n">
+        <v>1097</v>
+      </c>
+      <c r="D934" t="n">
+        <v>914.9500122070312</v>
+      </c>
+      <c r="E934" t="n">
+        <v>926.4000244140625</v>
+      </c>
+      <c r="F934" t="inlineStr"/>
+      <c r="G934" t="n">
+        <v>2503284</v>
+      </c>
+      <c r="H934" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I934" t="n">
+        <v>2</v>
+      </c>
+      <c r="J934" t="n">
+        <v>10</v>
+      </c>
+      <c r="K934" t="n">
+        <v>0</v>
+      </c>
+      <c r="L934" t="n">
+        <v>0</v>
+      </c>
+      <c r="M934" t="n">
+        <v>0</v>
+      </c>
+      <c r="N934" t="n">
+        <v>7</v>
+      </c>
+      <c r="O934" t="n">
+        <v>0</v>
+      </c>
+      <c r="P934" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q934" t="n">
+        <v>2</v>
+      </c>
+      <c r="R934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B935" t="n">
+        <v>929.1500244140625</v>
+      </c>
+      <c r="C935" t="n">
+        <v>1033.849975585938</v>
+      </c>
+      <c r="D935" t="n">
+        <v>853.2999877929688</v>
+      </c>
+      <c r="E935" t="n">
+        <v>1000.400024414062</v>
+      </c>
+      <c r="F935" t="inlineStr"/>
+      <c r="G935" t="n">
+        <v>2335051</v>
+      </c>
+      <c r="H935" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I935" t="n">
+        <v>2</v>
+      </c>
+      <c r="J935" t="n">
+        <v>17</v>
+      </c>
+      <c r="K935" t="n">
+        <v>0</v>
+      </c>
+      <c r="L935" t="n">
+        <v>0</v>
+      </c>
+      <c r="M935" t="n">
+        <v>0</v>
+      </c>
+      <c r="N935" t="n">
+        <v>8</v>
+      </c>
+      <c r="O935" t="n">
+        <v>0</v>
+      </c>
+      <c r="P935" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q935" t="n">
+        <v>0</v>
+      </c>
+      <c r="R935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B936" t="n">
+        <v>998.0499877929688</v>
+      </c>
+      <c r="C936" t="n">
+        <v>1004.799987792969</v>
+      </c>
+      <c r="D936" t="n">
+        <v>911.9000244140625</v>
+      </c>
+      <c r="E936" t="n">
+        <v>974.0499877929688</v>
+      </c>
+      <c r="F936" t="inlineStr"/>
+      <c r="G936" t="n">
+        <v>1025376</v>
+      </c>
+      <c r="H936" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I936" t="n">
+        <v>2</v>
+      </c>
+      <c r="J936" t="n">
+        <v>24</v>
+      </c>
+      <c r="K936" t="n">
+        <v>0</v>
+      </c>
+      <c r="L936" t="n">
+        <v>0</v>
+      </c>
+      <c r="M936" t="n">
+        <v>0</v>
+      </c>
+      <c r="N936" t="n">
+        <v>9</v>
+      </c>
+      <c r="O936" t="n">
+        <v>0</v>
+      </c>
+      <c r="P936" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q936" t="n">
+        <v>0</v>
+      </c>
+      <c r="R936" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/TECHNOE.NS.xlsx
+++ b/stock_historical_data/1wk/TECHNOE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R936"/>
+  <dimension ref="A1:R945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50979,7 +50979,9 @@
       <c r="Q902" t="n">
         <v>0</v>
       </c>
-      <c r="R902" t="inlineStr"/>
+      <c r="R902" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
@@ -51031,7 +51033,9 @@
       <c r="Q903" t="n">
         <v>0</v>
       </c>
-      <c r="R903" t="inlineStr"/>
+      <c r="R903" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
@@ -51083,7 +51087,9 @@
       <c r="Q904" t="n">
         <v>0</v>
       </c>
-      <c r="R904" t="inlineStr"/>
+      <c r="R904" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
@@ -51135,7 +51141,9 @@
       <c r="Q905" t="n">
         <v>0</v>
       </c>
-      <c r="R905" t="inlineStr"/>
+      <c r="R905" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
@@ -51187,7 +51195,9 @@
       <c r="Q906" t="n">
         <v>0</v>
       </c>
-      <c r="R906" t="inlineStr"/>
+      <c r="R906" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
@@ -51239,7 +51249,9 @@
       <c r="Q907" t="n">
         <v>0</v>
       </c>
-      <c r="R907" t="inlineStr"/>
+      <c r="R907" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
@@ -51291,7 +51303,9 @@
       <c r="Q908" t="n">
         <v>0</v>
       </c>
-      <c r="R908" t="inlineStr"/>
+      <c r="R908" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
@@ -51343,7 +51357,9 @@
       <c r="Q909" t="n">
         <v>0</v>
       </c>
-      <c r="R909" t="inlineStr"/>
+      <c r="R909" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
@@ -51395,7 +51411,9 @@
       <c r="Q910" t="n">
         <v>0</v>
       </c>
-      <c r="R910" t="inlineStr"/>
+      <c r="R910" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
@@ -51447,7 +51465,9 @@
       <c r="Q911" t="n">
         <v>0</v>
       </c>
-      <c r="R911" t="inlineStr"/>
+      <c r="R911" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
@@ -51499,7 +51519,9 @@
       <c r="Q912" t="n">
         <v>0</v>
       </c>
-      <c r="R912" t="inlineStr"/>
+      <c r="R912" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
@@ -51551,7 +51573,9 @@
       <c r="Q913" t="n">
         <v>0</v>
       </c>
-      <c r="R913" t="inlineStr"/>
+      <c r="R913" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
@@ -51603,7 +51627,9 @@
       <c r="Q914" t="n">
         <v>0</v>
       </c>
-      <c r="R914" t="inlineStr"/>
+      <c r="R914" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
@@ -51655,7 +51681,9 @@
       <c r="Q915" t="n">
         <v>2</v>
       </c>
-      <c r="R915" t="inlineStr"/>
+      <c r="R915" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
@@ -51707,7 +51735,9 @@
       <c r="Q916" t="n">
         <v>0</v>
       </c>
-      <c r="R916" t="inlineStr"/>
+      <c r="R916" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
@@ -51759,7 +51789,9 @@
       <c r="Q917" t="n">
         <v>0</v>
       </c>
-      <c r="R917" t="inlineStr"/>
+      <c r="R917" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
@@ -51811,7 +51843,9 @@
       <c r="Q918" t="n">
         <v>0</v>
       </c>
-      <c r="R918" t="inlineStr"/>
+      <c r="R918" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
@@ -51863,7 +51897,9 @@
       <c r="Q919" t="n">
         <v>0</v>
       </c>
-      <c r="R919" t="inlineStr"/>
+      <c r="R919" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
@@ -51915,7 +51951,9 @@
       <c r="Q920" t="n">
         <v>0</v>
       </c>
-      <c r="R920" t="inlineStr"/>
+      <c r="R920" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
@@ -51967,7 +52005,9 @@
       <c r="Q921" t="n">
         <v>0</v>
       </c>
-      <c r="R921" t="inlineStr"/>
+      <c r="R921" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
@@ -52019,7 +52059,9 @@
       <c r="Q922" t="n">
         <v>0</v>
       </c>
-      <c r="R922" t="inlineStr"/>
+      <c r="R922" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
@@ -52071,7 +52113,9 @@
       <c r="Q923" t="n">
         <v>2</v>
       </c>
-      <c r="R923" t="inlineStr"/>
+      <c r="R923" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="924">
       <c r="A924" s="2" t="n">
@@ -52123,7 +52167,9 @@
       <c r="Q924" t="n">
         <v>0</v>
       </c>
-      <c r="R924" t="inlineStr"/>
+      <c r="R924" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="925">
       <c r="A925" s="2" t="n">
@@ -52175,7 +52221,9 @@
       <c r="Q925" t="n">
         <v>0</v>
       </c>
-      <c r="R925" t="inlineStr"/>
+      <c r="R925" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
@@ -52227,7 +52275,9 @@
       <c r="Q926" t="n">
         <v>0</v>
       </c>
-      <c r="R926" t="inlineStr"/>
+      <c r="R926" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
@@ -52279,7 +52329,9 @@
       <c r="Q927" t="n">
         <v>1</v>
       </c>
-      <c r="R927" t="inlineStr"/>
+      <c r="R927" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
@@ -52331,7 +52383,9 @@
       <c r="Q928" t="n">
         <v>0</v>
       </c>
-      <c r="R928" t="inlineStr"/>
+      <c r="R928" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
@@ -52383,7 +52437,9 @@
       <c r="Q929" t="n">
         <v>0</v>
       </c>
-      <c r="R929" t="inlineStr"/>
+      <c r="R929" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="930">
       <c r="A930" s="2" t="n">
@@ -52435,7 +52491,9 @@
       <c r="Q930" t="n">
         <v>0</v>
       </c>
-      <c r="R930" t="inlineStr"/>
+      <c r="R930" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
@@ -52487,7 +52545,9 @@
       <c r="Q931" t="n">
         <v>0</v>
       </c>
-      <c r="R931" t="inlineStr"/>
+      <c r="R931" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="932">
       <c r="A932" s="2" t="n">
@@ -52539,7 +52599,9 @@
       <c r="Q932" t="n">
         <v>0</v>
       </c>
-      <c r="R932" t="inlineStr"/>
+      <c r="R932" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="933">
       <c r="A933" s="2" t="n">
@@ -52591,7 +52653,9 @@
       <c r="Q933" t="n">
         <v>0</v>
       </c>
-      <c r="R933" t="inlineStr"/>
+      <c r="R933" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="934">
       <c r="A934" s="2" t="n">
@@ -52643,7 +52707,9 @@
       <c r="Q934" t="n">
         <v>2</v>
       </c>
-      <c r="R934" t="inlineStr"/>
+      <c r="R934" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
@@ -52687,7 +52753,7 @@
         <v>8</v>
       </c>
       <c r="O935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P935" t="n">
         <v>0</v>
@@ -52695,7 +52761,9 @@
       <c r="Q935" t="n">
         <v>0</v>
       </c>
-      <c r="R935" t="inlineStr"/>
+      <c r="R935" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
@@ -52747,7 +52815,477 @@
       <c r="Q936" t="n">
         <v>0</v>
       </c>
-      <c r="R936" t="inlineStr"/>
+      <c r="R936" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B937" t="n">
+        <v>974.4000244140625</v>
+      </c>
+      <c r="C937" t="n">
+        <v>994.75</v>
+      </c>
+      <c r="D937" t="n">
+        <v>907</v>
+      </c>
+      <c r="E937" t="n">
+        <v>956.5499877929688</v>
+      </c>
+      <c r="F937" t="inlineStr"/>
+      <c r="G937" t="n">
+        <v>1403135</v>
+      </c>
+      <c r="H937" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I937" t="n">
+        <v>3</v>
+      </c>
+      <c r="J937" t="n">
+        <v>3</v>
+      </c>
+      <c r="K937" t="n">
+        <v>0</v>
+      </c>
+      <c r="L937" t="n">
+        <v>0</v>
+      </c>
+      <c r="M937" t="n">
+        <v>0</v>
+      </c>
+      <c r="N937" t="n">
+        <v>10</v>
+      </c>
+      <c r="O937" t="n">
+        <v>0</v>
+      </c>
+      <c r="P937" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q937" t="n">
+        <v>0</v>
+      </c>
+      <c r="R937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B938" t="n">
+        <v>956.5499877929688</v>
+      </c>
+      <c r="C938" t="n">
+        <v>969</v>
+      </c>
+      <c r="D938" t="n">
+        <v>865.6500244140625</v>
+      </c>
+      <c r="E938" t="n">
+        <v>900.5999755859375</v>
+      </c>
+      <c r="F938" t="inlineStr"/>
+      <c r="G938" t="n">
+        <v>1087356</v>
+      </c>
+      <c r="H938" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I938" t="n">
+        <v>3</v>
+      </c>
+      <c r="J938" t="n">
+        <v>10</v>
+      </c>
+      <c r="K938" t="n">
+        <v>0</v>
+      </c>
+      <c r="L938" t="n">
+        <v>0</v>
+      </c>
+      <c r="M938" t="n">
+        <v>0</v>
+      </c>
+      <c r="N938" t="n">
+        <v>11</v>
+      </c>
+      <c r="O938" t="n">
+        <v>0</v>
+      </c>
+      <c r="P938" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q938" t="n">
+        <v>0</v>
+      </c>
+      <c r="R938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B939" t="n">
+        <v>900</v>
+      </c>
+      <c r="C939" t="n">
+        <v>1087.449951171875</v>
+      </c>
+      <c r="D939" t="n">
+        <v>886.5</v>
+      </c>
+      <c r="E939" t="n">
+        <v>1034.5</v>
+      </c>
+      <c r="F939" t="inlineStr"/>
+      <c r="G939" t="n">
+        <v>3102968</v>
+      </c>
+      <c r="H939" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I939" t="n">
+        <v>3</v>
+      </c>
+      <c r="J939" t="n">
+        <v>17</v>
+      </c>
+      <c r="K939" t="n">
+        <v>0</v>
+      </c>
+      <c r="L939" t="n">
+        <v>0</v>
+      </c>
+      <c r="M939" t="n">
+        <v>0</v>
+      </c>
+      <c r="N939" t="n">
+        <v>12</v>
+      </c>
+      <c r="O939" t="n">
+        <v>0</v>
+      </c>
+      <c r="P939" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q939" t="n">
+        <v>0</v>
+      </c>
+      <c r="R939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B940" t="n">
+        <v>1052.949951171875</v>
+      </c>
+      <c r="C940" t="n">
+        <v>1096</v>
+      </c>
+      <c r="D940" t="n">
+        <v>991.0999755859375</v>
+      </c>
+      <c r="E940" t="n">
+        <v>1003.200012207031</v>
+      </c>
+      <c r="F940" t="inlineStr"/>
+      <c r="G940" t="n">
+        <v>1687185</v>
+      </c>
+      <c r="H940" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I940" t="n">
+        <v>3</v>
+      </c>
+      <c r="J940" t="n">
+        <v>24</v>
+      </c>
+      <c r="K940" t="n">
+        <v>0</v>
+      </c>
+      <c r="L940" t="n">
+        <v>0</v>
+      </c>
+      <c r="M940" t="n">
+        <v>0</v>
+      </c>
+      <c r="N940" t="n">
+        <v>13</v>
+      </c>
+      <c r="O940" t="n">
+        <v>0</v>
+      </c>
+      <c r="P940" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q940" t="n">
+        <v>0</v>
+      </c>
+      <c r="R940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B941" t="n">
+        <v>1003.200012207031</v>
+      </c>
+      <c r="C941" t="n">
+        <v>1042.449951171875</v>
+      </c>
+      <c r="D941" t="n">
+        <v>967.1500244140625</v>
+      </c>
+      <c r="E941" t="n">
+        <v>981.4000244140625</v>
+      </c>
+      <c r="F941" t="inlineStr"/>
+      <c r="G941" t="n">
+        <v>798675</v>
+      </c>
+      <c r="H941" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I941" t="n">
+        <v>3</v>
+      </c>
+      <c r="J941" t="n">
+        <v>31</v>
+      </c>
+      <c r="K941" t="n">
+        <v>0</v>
+      </c>
+      <c r="L941" t="n">
+        <v>0</v>
+      </c>
+      <c r="M941" t="n">
+        <v>0</v>
+      </c>
+      <c r="N941" t="n">
+        <v>14</v>
+      </c>
+      <c r="O941" t="n">
+        <v>0</v>
+      </c>
+      <c r="P941" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q941" t="n">
+        <v>1</v>
+      </c>
+      <c r="R941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B942" t="n">
+        <v>785.1500244140625</v>
+      </c>
+      <c r="C942" t="n">
+        <v>992.7999877929688</v>
+      </c>
+      <c r="D942" t="n">
+        <v>785.1500244140625</v>
+      </c>
+      <c r="E942" t="n">
+        <v>987.9500122070312</v>
+      </c>
+      <c r="F942" t="inlineStr"/>
+      <c r="G942" t="n">
+        <v>1204900</v>
+      </c>
+      <c r="H942" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I942" t="n">
+        <v>4</v>
+      </c>
+      <c r="J942" t="n">
+        <v>7</v>
+      </c>
+      <c r="K942" t="n">
+        <v>0</v>
+      </c>
+      <c r="L942" t="n">
+        <v>0</v>
+      </c>
+      <c r="M942" t="n">
+        <v>0</v>
+      </c>
+      <c r="N942" t="n">
+        <v>15</v>
+      </c>
+      <c r="O942" t="n">
+        <v>0</v>
+      </c>
+      <c r="P942" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q942" t="n">
+        <v>0</v>
+      </c>
+      <c r="R942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B943" t="n">
+        <v>987.9500122070312</v>
+      </c>
+      <c r="C943" t="n">
+        <v>1096</v>
+      </c>
+      <c r="D943" t="n">
+        <v>987.9500122070312</v>
+      </c>
+      <c r="E943" t="n">
+        <v>1057.800048828125</v>
+      </c>
+      <c r="F943" t="inlineStr"/>
+      <c r="G943" t="n">
+        <v>850077</v>
+      </c>
+      <c r="H943" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I943" t="n">
+        <v>4</v>
+      </c>
+      <c r="J943" t="n">
+        <v>14</v>
+      </c>
+      <c r="K943" t="n">
+        <v>0</v>
+      </c>
+      <c r="L943" t="n">
+        <v>0</v>
+      </c>
+      <c r="M943" t="n">
+        <v>0</v>
+      </c>
+      <c r="N943" t="n">
+        <v>16</v>
+      </c>
+      <c r="O943" t="n">
+        <v>0</v>
+      </c>
+      <c r="P943" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q943" t="n">
+        <v>0</v>
+      </c>
+      <c r="R943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B944" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C944" t="n">
+        <v>1167.900024414062</v>
+      </c>
+      <c r="D944" t="n">
+        <v>1050.900024414062</v>
+      </c>
+      <c r="E944" t="n">
+        <v>1101.400024414062</v>
+      </c>
+      <c r="F944" t="inlineStr"/>
+      <c r="G944" t="n">
+        <v>2454339</v>
+      </c>
+      <c r="H944" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I944" t="n">
+        <v>4</v>
+      </c>
+      <c r="J944" t="n">
+        <v>21</v>
+      </c>
+      <c r="K944" t="n">
+        <v>0</v>
+      </c>
+      <c r="L944" t="n">
+        <v>0</v>
+      </c>
+      <c r="M944" t="n">
+        <v>0</v>
+      </c>
+      <c r="N944" t="n">
+        <v>17</v>
+      </c>
+      <c r="O944" t="n">
+        <v>0</v>
+      </c>
+      <c r="P944" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q944" t="n">
+        <v>0</v>
+      </c>
+      <c r="R944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B945" t="n">
+        <v>1101</v>
+      </c>
+      <c r="C945" t="n">
+        <v>1122.199951171875</v>
+      </c>
+      <c r="D945" t="n">
+        <v>1052.099975585938</v>
+      </c>
+      <c r="E945" t="n">
+        <v>1063.5</v>
+      </c>
+      <c r="F945" t="inlineStr"/>
+      <c r="G945" t="n">
+        <v>541973</v>
+      </c>
+      <c r="H945" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I945" t="n">
+        <v>4</v>
+      </c>
+      <c r="J945" t="n">
+        <v>28</v>
+      </c>
+      <c r="K945" t="n">
+        <v>0</v>
+      </c>
+      <c r="L945" t="n">
+        <v>0</v>
+      </c>
+      <c r="M945" t="n">
+        <v>0</v>
+      </c>
+      <c r="N945" t="n">
+        <v>18</v>
+      </c>
+      <c r="O945" t="n">
+        <v>0</v>
+      </c>
+      <c r="P945" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q945" t="n">
+        <v>0</v>
+      </c>
+      <c r="R945" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
